--- a/files/2019-2020教职工名册VMA Teachers Name List（20200508）.xlsx
+++ b/files/2019-2020教职工名册VMA Teachers Name List（20200508）.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\WeChat Files\wxid_9yog9a5yvzwy21\FileStorage\File\2020-06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\VMAWalk\vmawalk\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD28F26B-7CFF-4DEE-8E0E-ECFEEE70810C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46BFA459-637E-4D06-94D9-31A9E7690438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="教职工名单" sheetId="1" r:id="rId1"/>
     <sheet name="图床" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">教职工名单!$A$1:$F$170</definedName>
@@ -22,6 +23,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">教职工名单!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="763">
   <si>
     <t>序号
 No.</t>
@@ -2305,6 +2307,420 @@
   </si>
   <si>
     <t>工号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>chineseName</t>
+  </si>
+  <si>
+    <t>englishName</t>
+  </si>
+  <si>
+    <t>averageScore</t>
+  </si>
+  <si>
+    <t>王赫</t>
+  </si>
+  <si>
+    <t>Wang He</t>
+  </si>
+  <si>
+    <t>孙靓雯</t>
+  </si>
+  <si>
+    <t>周幸茹</t>
+  </si>
+  <si>
+    <t>Nick Atwater</t>
+  </si>
+  <si>
+    <t>高浩</t>
+  </si>
+  <si>
+    <t>马斌</t>
+  </si>
+  <si>
+    <t>徐源</t>
+  </si>
+  <si>
+    <t>何智伟</t>
+  </si>
+  <si>
+    <t>吴国熹</t>
+  </si>
+  <si>
+    <t>杨文娟</t>
+  </si>
+  <si>
+    <t>叶元成</t>
+  </si>
+  <si>
+    <t>申磊</t>
+  </si>
+  <si>
+    <t>尤晶磊</t>
+  </si>
+  <si>
+    <t>高升恒</t>
+  </si>
+  <si>
+    <t>李维才</t>
+  </si>
+  <si>
+    <t>张新瑶</t>
+  </si>
+  <si>
+    <t>黄春华</t>
+  </si>
+  <si>
+    <t>王嘉熠</t>
+  </si>
+  <si>
+    <t>林锋洁</t>
+  </si>
+  <si>
+    <t>白凌</t>
+  </si>
+  <si>
+    <t>殷雁</t>
+  </si>
+  <si>
+    <t>张跞颖</t>
+  </si>
+  <si>
+    <t>龚禹</t>
+  </si>
+  <si>
+    <t>吴邵汐</t>
+  </si>
+  <si>
+    <t>李戈</t>
+  </si>
+  <si>
+    <t>曹耘</t>
+  </si>
+  <si>
+    <t>王砥</t>
+  </si>
+  <si>
+    <t>吴佳宜</t>
+  </si>
+  <si>
+    <t>林素琴</t>
+  </si>
+  <si>
+    <t>屠旖旎</t>
+  </si>
+  <si>
+    <t>梁晶玮</t>
+  </si>
+  <si>
+    <t>白东亮</t>
+  </si>
+  <si>
+    <t>赖雨青</t>
+  </si>
+  <si>
+    <t>陈逸秋</t>
+  </si>
+  <si>
+    <t>张子提</t>
+  </si>
+  <si>
+    <t>吴晓萍</t>
+  </si>
+  <si>
+    <t>王思懿</t>
+  </si>
+  <si>
+    <t>马梦</t>
+  </si>
+  <si>
+    <t>邱野</t>
+  </si>
+  <si>
+    <t>李钰</t>
+  </si>
+  <si>
+    <t>刘洋</t>
+  </si>
+  <si>
+    <t>蔡润苑</t>
+  </si>
+  <si>
+    <t>潘游美忆</t>
+  </si>
+  <si>
+    <t>段炼</t>
+  </si>
+  <si>
+    <t>许美杰</t>
+  </si>
+  <si>
+    <t>禹雅</t>
+  </si>
+  <si>
+    <t>王大伟</t>
+  </si>
+  <si>
+    <t>徐亮</t>
+  </si>
+  <si>
+    <t>饶琼</t>
+  </si>
+  <si>
+    <t>石忞旻</t>
+  </si>
+  <si>
+    <t>徐志伟</t>
+  </si>
+  <si>
+    <t>张泽泳</t>
+  </si>
+  <si>
+    <t>林文鑫</t>
+  </si>
+  <si>
+    <t>贾如愚</t>
+  </si>
+  <si>
+    <t>吴惠洋</t>
+  </si>
+  <si>
+    <t>Chesslyn Scott Bailey</t>
+  </si>
+  <si>
+    <t>张甲春</t>
+  </si>
+  <si>
+    <t>王海燕</t>
+  </si>
+  <si>
+    <t>邵琼波</t>
+  </si>
+  <si>
+    <t>孙艳萍</t>
+  </si>
+  <si>
+    <t>陈燕琦</t>
+  </si>
+  <si>
+    <t>黄丽君</t>
+  </si>
+  <si>
+    <t>严欣然</t>
+  </si>
+  <si>
+    <t>赵菲儿</t>
+  </si>
+  <si>
+    <t>阳菲</t>
+  </si>
+  <si>
+    <t>吕羚</t>
+  </si>
+  <si>
+    <t>陈俊昇</t>
+  </si>
+  <si>
+    <t>周靖</t>
+  </si>
+  <si>
+    <t>马骁</t>
+  </si>
+  <si>
+    <t>胡纯</t>
+  </si>
+  <si>
+    <t>张莉</t>
+  </si>
+  <si>
+    <t>张媛</t>
+  </si>
+  <si>
+    <t>朱晓军</t>
+  </si>
+  <si>
+    <t>阮坤连</t>
+  </si>
+  <si>
+    <t>凌利红</t>
+  </si>
+  <si>
+    <t>李桂敏</t>
+  </si>
+  <si>
+    <t>咸海明</t>
+  </si>
+  <si>
+    <t>耿倩</t>
+  </si>
+  <si>
+    <t>杨永乐</t>
+  </si>
+  <si>
+    <t>伍仙洁</t>
+  </si>
+  <si>
+    <t>吴晓莉</t>
+  </si>
+  <si>
+    <t>杜浩</t>
+  </si>
+  <si>
+    <t>郑伟伟</t>
+  </si>
+  <si>
+    <t>崔玉</t>
+  </si>
+  <si>
+    <t>曹霞</t>
+  </si>
+  <si>
+    <t>郭润尘</t>
+  </si>
+  <si>
+    <t>谢瑾嵘</t>
+  </si>
+  <si>
+    <t>陈宇婷</t>
+  </si>
+  <si>
+    <t>陈燕静</t>
+  </si>
+  <si>
+    <t>谢燕萍</t>
+  </si>
+  <si>
+    <t>唐芯雅</t>
+  </si>
+  <si>
+    <t>王子豪</t>
+  </si>
+  <si>
+    <t>鲁燕</t>
+  </si>
+  <si>
+    <t>秦星</t>
+  </si>
+  <si>
+    <t>李扬</t>
+  </si>
+  <si>
+    <t>董芮</t>
+  </si>
+  <si>
+    <t>张博</t>
+  </si>
+  <si>
+    <t>邬宁馨</t>
+  </si>
+  <si>
+    <t>吴祎</t>
+  </si>
+  <si>
+    <t>罗晓</t>
+  </si>
+  <si>
+    <t>李思萦</t>
+  </si>
+  <si>
+    <t>张愉婉</t>
+  </si>
+  <si>
+    <t>Teisha Chung-Smith</t>
+  </si>
+  <si>
+    <t>Nicolas McNamara</t>
+  </si>
+  <si>
+    <t>王舒笛</t>
+  </si>
+  <si>
+    <t>沈炜楠</t>
+  </si>
+  <si>
+    <t>Kirsten Nicole Saunders</t>
+  </si>
+  <si>
+    <t>祭菲</t>
+  </si>
+  <si>
+    <t>周雅文</t>
+  </si>
+  <si>
+    <t>黄瑜</t>
+  </si>
+  <si>
+    <t>陈冬松</t>
+  </si>
+  <si>
+    <t>黄茹茹</t>
+  </si>
+  <si>
+    <t>蒲妍冰</t>
+  </si>
+  <si>
+    <t>肖惠珊</t>
+  </si>
+  <si>
+    <t>杨锦婷</t>
+  </si>
+  <si>
+    <t>龙增辉</t>
+  </si>
+  <si>
+    <t>艾文玲</t>
+  </si>
+  <si>
+    <t>周小伟</t>
+  </si>
+  <si>
+    <t>于世刚</t>
+  </si>
+  <si>
+    <t>邓宁</t>
+  </si>
+  <si>
+    <t>周怡辰</t>
+  </si>
+  <si>
+    <t>陈潇</t>
+  </si>
+  <si>
+    <t>严健铭</t>
+  </si>
+  <si>
+    <t>李函珏</t>
+  </si>
+  <si>
+    <t>孙绿乔</t>
+  </si>
+  <si>
+    <t>刘宴妮</t>
+  </si>
+  <si>
+    <t>Aileen Ai</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maryann O'Brien</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teisha Chung-Smith</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kwok Hei Ng</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yawen Zhou</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angela Choi</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2312,7 +2728,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2383,14 +2799,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2463,14 +2871,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2520,15 +2927,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{CB3F54FB-B556-4940-84FE-402C6F1749DF}"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2813,10 +3222,10 @@
   <dimension ref="A1:K171"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C163" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D171" sqref="D171"/>
+      <selection pane="bottomRight" activeCell="E1" activeCellId="2" sqref="B1:B1048576 D1:D1048576 E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
@@ -6480,23 +6889,23 @@
   <dimension ref="A1:C171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="2" width="13.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>625</v>
       </c>
     </row>
@@ -6515,7 +6924,7 @@
       <c r="B3" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>510</v>
       </c>
     </row>
@@ -6526,7 +6935,7 @@
       <c r="B4" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>511</v>
       </c>
     </row>
@@ -6537,7 +6946,7 @@
       <c r="B5" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>512</v>
       </c>
     </row>
@@ -6548,7 +6957,7 @@
       <c r="B6" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>513</v>
       </c>
     </row>
@@ -6559,7 +6968,7 @@
       <c r="B7" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9" t="s">
         <v>514</v>
       </c>
     </row>
@@ -6578,7 +6987,7 @@
       <c r="B9" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="9" t="s">
         <v>515</v>
       </c>
     </row>
@@ -6589,7 +6998,7 @@
       <c r="B10" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="9" t="s">
         <v>516</v>
       </c>
     </row>
@@ -6600,7 +7009,7 @@
       <c r="B11" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="9" t="s">
         <v>517</v>
       </c>
     </row>
@@ -6611,7 +7020,7 @@
       <c r="B12" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="9" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6622,7 +7031,7 @@
       <c r="B13" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="9" t="s">
         <v>519</v>
       </c>
     </row>
@@ -6633,7 +7042,7 @@
       <c r="B14" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="9" t="s">
         <v>520</v>
       </c>
     </row>
@@ -6644,7 +7053,7 @@
       <c r="B15" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="9" t="s">
         <v>521</v>
       </c>
     </row>
@@ -6663,7 +7072,7 @@
       <c r="B17" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="9" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6690,7 +7099,7 @@
       <c r="B20" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="9" t="s">
         <v>523</v>
       </c>
     </row>
@@ -6701,7 +7110,7 @@
       <c r="B21" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="9" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6712,7 +7121,7 @@
       <c r="B22" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="9" t="s">
         <v>525</v>
       </c>
     </row>
@@ -6723,7 +7132,7 @@
       <c r="B23" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6742,7 +7151,7 @@
       <c r="B25" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="9" t="s">
         <v>529</v>
       </c>
     </row>
@@ -6753,7 +7162,7 @@
       <c r="B26" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="9" t="s">
         <v>530</v>
       </c>
     </row>
@@ -6764,7 +7173,7 @@
       <c r="B27" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="9" t="s">
         <v>531</v>
       </c>
     </row>
@@ -6775,7 +7184,7 @@
       <c r="B28" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="9" t="s">
         <v>527</v>
       </c>
     </row>
@@ -6786,7 +7195,7 @@
       <c r="B29" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="9" t="s">
         <v>528</v>
       </c>
     </row>
@@ -6797,7 +7206,7 @@
       <c r="B30" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="9" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6808,7 +7217,7 @@
       <c r="B31" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="9" t="s">
         <v>535</v>
       </c>
     </row>
@@ -6819,7 +7228,7 @@
       <c r="B32" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="9" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6830,7 +7239,7 @@
       <c r="B33" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="9" t="s">
         <v>532</v>
       </c>
     </row>
@@ -6841,7 +7250,7 @@
       <c r="B34" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="9" t="s">
         <v>533</v>
       </c>
     </row>
@@ -6860,7 +7269,7 @@
       <c r="B36" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="9" t="s">
         <v>537</v>
       </c>
     </row>
@@ -6871,7 +7280,7 @@
       <c r="B37" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="9" t="s">
         <v>538</v>
       </c>
     </row>
@@ -6882,7 +7291,7 @@
       <c r="B38" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="9" t="s">
         <v>539</v>
       </c>
     </row>
@@ -6893,7 +7302,7 @@
       <c r="B39" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="9" t="s">
         <v>540</v>
       </c>
     </row>
@@ -6904,7 +7313,7 @@
       <c r="B40" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="9" t="s">
         <v>541</v>
       </c>
     </row>
@@ -6915,7 +7324,7 @@
       <c r="B41" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="9" t="s">
         <v>542</v>
       </c>
     </row>
@@ -6926,7 +7335,7 @@
       <c r="B42" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="9" t="s">
         <v>543</v>
       </c>
     </row>
@@ -6937,7 +7346,7 @@
       <c r="B43" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="9" t="s">
         <v>544</v>
       </c>
     </row>
@@ -6956,7 +7365,7 @@
       <c r="B45" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="9" t="s">
         <v>545</v>
       </c>
     </row>
@@ -6967,7 +7376,7 @@
       <c r="B46" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="9" t="s">
         <v>546</v>
       </c>
     </row>
@@ -6978,7 +7387,7 @@
       <c r="B47" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="9" t="s">
         <v>547</v>
       </c>
     </row>
@@ -6997,7 +7406,7 @@
       <c r="B49" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="9" t="s">
         <v>548</v>
       </c>
     </row>
@@ -7008,7 +7417,7 @@
       <c r="B50" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="9" t="s">
         <v>549</v>
       </c>
     </row>
@@ -7027,7 +7436,7 @@
       <c r="B52" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="9" t="s">
         <v>550</v>
       </c>
     </row>
@@ -7038,7 +7447,7 @@
       <c r="B53" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="9" t="s">
         <v>551</v>
       </c>
     </row>
@@ -7049,7 +7458,7 @@
       <c r="B54" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="9" t="s">
         <v>552</v>
       </c>
     </row>
@@ -7060,7 +7469,7 @@
       <c r="B55" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="9" t="s">
         <v>553</v>
       </c>
     </row>
@@ -7079,7 +7488,7 @@
       <c r="B57" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="9" t="s">
         <v>554</v>
       </c>
     </row>
@@ -7090,7 +7499,7 @@
       <c r="B58" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="9" t="s">
         <v>555</v>
       </c>
     </row>
@@ -7101,7 +7510,7 @@
       <c r="B59" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="9" t="s">
         <v>556</v>
       </c>
     </row>
@@ -7112,7 +7521,7 @@
       <c r="B60" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="9" t="s">
         <v>557</v>
       </c>
     </row>
@@ -7123,7 +7532,7 @@
       <c r="B61" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="9" t="s">
         <v>558</v>
       </c>
     </row>
@@ -7134,7 +7543,7 @@
       <c r="B62" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="9" t="s">
         <v>559</v>
       </c>
     </row>
@@ -7145,7 +7554,7 @@
       <c r="B63" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="9" t="s">
         <v>560</v>
       </c>
     </row>
@@ -7156,7 +7565,7 @@
       <c r="B64" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="9" t="s">
         <v>561</v>
       </c>
     </row>
@@ -7167,7 +7576,7 @@
       <c r="B65" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="9" t="s">
         <v>562</v>
       </c>
     </row>
@@ -7186,7 +7595,7 @@
       <c r="B67" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="9" t="s">
         <v>563</v>
       </c>
     </row>
@@ -7197,7 +7606,7 @@
       <c r="B68" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="9" t="s">
         <v>564</v>
       </c>
     </row>
@@ -7208,7 +7617,7 @@
       <c r="B69" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="9" t="s">
         <v>565</v>
       </c>
     </row>
@@ -7219,7 +7628,7 @@
       <c r="B70" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="9" t="s">
         <v>566</v>
       </c>
     </row>
@@ -7230,7 +7639,7 @@
       <c r="B71" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="9" t="s">
         <v>567</v>
       </c>
     </row>
@@ -7249,7 +7658,7 @@
       <c r="B73" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="9" t="s">
         <v>568</v>
       </c>
     </row>
@@ -7268,7 +7677,7 @@
       <c r="B75" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="9" t="s">
         <v>569</v>
       </c>
     </row>
@@ -7279,7 +7688,7 @@
       <c r="B76" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="9" t="s">
         <v>570</v>
       </c>
     </row>
@@ -7298,7 +7707,7 @@
       <c r="B78" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="9" t="s">
         <v>571</v>
       </c>
     </row>
@@ -7317,7 +7726,7 @@
       <c r="B80" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="9" t="s">
         <v>572</v>
       </c>
     </row>
@@ -7328,7 +7737,7 @@
       <c r="B81" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="9" t="s">
         <v>573</v>
       </c>
     </row>
@@ -7339,7 +7748,7 @@
       <c r="B82" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="9" t="s">
         <v>574</v>
       </c>
     </row>
@@ -7350,7 +7759,7 @@
       <c r="B83" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="9" t="s">
         <v>575</v>
       </c>
     </row>
@@ -7361,7 +7770,7 @@
       <c r="B84" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="9" t="s">
         <v>576</v>
       </c>
     </row>
@@ -7372,7 +7781,7 @@
       <c r="B85" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="9" t="s">
         <v>579</v>
       </c>
     </row>
@@ -7383,7 +7792,7 @@
       <c r="B86" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="9" t="s">
         <v>577</v>
       </c>
     </row>
@@ -7394,7 +7803,7 @@
       <c r="B87" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="9" t="s">
         <v>578</v>
       </c>
     </row>
@@ -7421,7 +7830,7 @@
       <c r="B90" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="9" t="s">
         <v>580</v>
       </c>
     </row>
@@ -7432,7 +7841,7 @@
       <c r="B91" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="9" t="s">
         <v>581</v>
       </c>
     </row>
@@ -7491,7 +7900,7 @@
       <c r="B98" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="9" t="s">
         <v>582</v>
       </c>
     </row>
@@ -7502,7 +7911,7 @@
       <c r="B99" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="9" t="s">
         <v>583</v>
       </c>
     </row>
@@ -7513,7 +7922,7 @@
       <c r="B100" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="9" t="s">
         <v>584</v>
       </c>
     </row>
@@ -7604,7 +8013,7 @@
       <c r="B111" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="C111" s="9" t="s">
         <v>585</v>
       </c>
     </row>
@@ -7631,7 +8040,7 @@
       <c r="B114" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C114" s="9" t="s">
         <v>586</v>
       </c>
     </row>
@@ -7642,7 +8051,7 @@
       <c r="B115" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="9" t="s">
         <v>587</v>
       </c>
     </row>
@@ -7661,7 +8070,7 @@
       <c r="B117" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C117" s="17" t="s">
+      <c r="C117" s="9" t="s">
         <v>588</v>
       </c>
     </row>
@@ -7688,7 +8097,7 @@
       <c r="B120" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="9" t="s">
         <v>589</v>
       </c>
     </row>
@@ -7707,7 +8116,7 @@
       <c r="B122" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="9" t="s">
         <v>590</v>
       </c>
     </row>
@@ -7726,7 +8135,7 @@
       <c r="B124" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="9" t="s">
         <v>591</v>
       </c>
     </row>
@@ -7737,7 +8146,7 @@
       <c r="B125" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C125" s="17" t="s">
+      <c r="C125" s="9" t="s">
         <v>592</v>
       </c>
     </row>
@@ -7764,7 +8173,7 @@
       <c r="B128" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="9" t="s">
         <v>593</v>
       </c>
     </row>
@@ -7775,7 +8184,7 @@
       <c r="B129" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="9" t="s">
         <v>594</v>
       </c>
     </row>
@@ -7786,7 +8195,7 @@
       <c r="B130" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="9" t="s">
         <v>595</v>
       </c>
     </row>
@@ -7797,7 +8206,7 @@
       <c r="B131" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="9" t="s">
         <v>596</v>
       </c>
     </row>
@@ -7808,7 +8217,7 @@
       <c r="B132" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="9" t="s">
         <v>597</v>
       </c>
     </row>
@@ -7819,7 +8228,7 @@
       <c r="B133" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C133" s="17" t="s">
+      <c r="C133" s="9" t="s">
         <v>601</v>
       </c>
     </row>
@@ -7830,7 +8239,7 @@
       <c r="B134" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="9" t="s">
         <v>598</v>
       </c>
     </row>
@@ -7841,7 +8250,7 @@
       <c r="B135" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="9" t="s">
         <v>599</v>
       </c>
     </row>
@@ -7852,7 +8261,7 @@
       <c r="B136" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="9" t="s">
         <v>600</v>
       </c>
     </row>
@@ -7871,7 +8280,7 @@
       <c r="B138" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="9" t="s">
         <v>602</v>
       </c>
     </row>
@@ -7882,7 +8291,7 @@
       <c r="B139" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="9" t="s">
         <v>603</v>
       </c>
     </row>
@@ -7901,7 +8310,7 @@
       <c r="B141" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="9" t="s">
         <v>604</v>
       </c>
     </row>
@@ -7912,7 +8321,7 @@
       <c r="B142" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="9" t="s">
         <v>605</v>
       </c>
     </row>
@@ -7923,7 +8332,7 @@
       <c r="B143" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="9" t="s">
         <v>606</v>
       </c>
     </row>
@@ -7950,7 +8359,7 @@
       <c r="B146" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="9" t="s">
         <v>611</v>
       </c>
     </row>
@@ -7961,7 +8370,7 @@
       <c r="B147" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="9" t="s">
         <v>607</v>
       </c>
     </row>
@@ -7972,7 +8381,7 @@
       <c r="B148" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="9" t="s">
         <v>608</v>
       </c>
     </row>
@@ -7983,7 +8392,7 @@
       <c r="B149" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="9" t="s">
         <v>609</v>
       </c>
     </row>
@@ -7994,7 +8403,7 @@
       <c r="B150" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="9" t="s">
         <v>610</v>
       </c>
     </row>
@@ -8005,7 +8414,7 @@
       <c r="B151" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="9" t="s">
         <v>612</v>
       </c>
     </row>
@@ -8032,7 +8441,7 @@
       <c r="B154" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="9" t="s">
         <v>613</v>
       </c>
     </row>
@@ -8043,7 +8452,7 @@
       <c r="B155" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="9" t="s">
         <v>614</v>
       </c>
     </row>
@@ -8094,7 +8503,7 @@
       <c r="B161" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="9" t="s">
         <v>615</v>
       </c>
     </row>
@@ -8105,7 +8514,7 @@
       <c r="B162" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="9" t="s">
         <v>616</v>
       </c>
     </row>
@@ -8124,7 +8533,7 @@
       <c r="B164" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="C164" s="9" t="s">
         <v>619</v>
       </c>
     </row>
@@ -8135,7 +8544,7 @@
       <c r="B165" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="9" t="s">
         <v>617</v>
       </c>
     </row>
@@ -8146,7 +8555,7 @@
       <c r="B166" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="9" t="s">
         <v>618</v>
       </c>
     </row>
@@ -8157,7 +8566,7 @@
       <c r="B167" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="9" t="s">
         <v>620</v>
       </c>
     </row>
@@ -8168,7 +8577,7 @@
       <c r="B168" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="9" t="s">
         <v>621</v>
       </c>
     </row>
@@ -8179,7 +8588,7 @@
       <c r="B169" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="9" t="s">
         <v>622</v>
       </c>
     </row>
@@ -8190,7 +8599,7 @@
       <c r="B170" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="9" t="s">
         <v>623</v>
       </c>
     </row>
@@ -8201,7 +8610,7 @@
       <c r="B171" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="9" t="s">
         <v>624</v>
       </c>
     </row>
@@ -8227,4 +8636,3485 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFF25FB-0716-4DAB-BAC8-68704335A4F0}">
+  <dimension ref="C1:J171"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="10.77734375" style="12" customWidth="1"/>
+    <col min="4" max="6" width="22" style="12" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" ht="31.2">
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H1" t="s">
+        <v>627</v>
+      </c>
+      <c r="I1" t="s">
+        <v>628</v>
+      </c>
+      <c r="J1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="3:10" ht="30">
+      <c r="C2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2">
+        <v>246</v>
+      </c>
+      <c r="H2" t="s">
+        <v>747</v>
+      </c>
+      <c r="I2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10" ht="30">
+      <c r="C3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3">
+        <v>112</v>
+      </c>
+      <c r="H3" t="s">
+        <v>645</v>
+      </c>
+      <c r="I3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" ht="30">
+      <c r="C4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4">
+        <v>223</v>
+      </c>
+      <c r="H4" t="s">
+        <v>730</v>
+      </c>
+      <c r="I4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" ht="30">
+      <c r="C5" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5">
+        <v>245</v>
+      </c>
+      <c r="H5" t="s">
+        <v>746</v>
+      </c>
+      <c r="I5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="30">
+      <c r="C6" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6">
+        <v>120</v>
+      </c>
+      <c r="H6" t="s">
+        <v>649</v>
+      </c>
+      <c r="I6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7">
+        <v>106</v>
+      </c>
+      <c r="I7" t="s">
+        <v>355</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" ht="30">
+      <c r="C8" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8">
+        <v>131</v>
+      </c>
+      <c r="H8" t="s">
+        <v>653</v>
+      </c>
+      <c r="I8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="30">
+      <c r="C9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9">
+        <v>134</v>
+      </c>
+      <c r="H9" t="s">
+        <v>655</v>
+      </c>
+      <c r="I9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10">
+        <v>258</v>
+      </c>
+      <c r="I10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11">
+        <v>175</v>
+      </c>
+      <c r="I11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12">
+        <v>136</v>
+      </c>
+      <c r="I12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="30">
+      <c r="C13" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13">
+        <v>122</v>
+      </c>
+      <c r="H13" t="s">
+        <v>650</v>
+      </c>
+      <c r="I13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" ht="30">
+      <c r="C14" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14">
+        <v>117</v>
+      </c>
+      <c r="H14" t="s">
+        <v>647</v>
+      </c>
+      <c r="I14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15">
+        <v>152</v>
+      </c>
+      <c r="I15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" ht="30">
+      <c r="C16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16">
+        <v>220</v>
+      </c>
+      <c r="H16" t="s">
+        <v>727</v>
+      </c>
+      <c r="I16" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="30">
+      <c r="C17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17">
+        <v>208</v>
+      </c>
+      <c r="H17" t="s">
+        <v>715</v>
+      </c>
+      <c r="I17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="30">
+      <c r="C18" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18">
+        <v>108</v>
+      </c>
+      <c r="H18" t="s">
+        <v>641</v>
+      </c>
+      <c r="I18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="30">
+      <c r="C19" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19">
+        <v>172</v>
+      </c>
+      <c r="H19" t="s">
+        <v>683</v>
+      </c>
+      <c r="I19" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20">
+        <v>168</v>
+      </c>
+      <c r="I20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="30">
+      <c r="C21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21">
+        <v>251</v>
+      </c>
+      <c r="H21" t="s">
+        <v>752</v>
+      </c>
+      <c r="I21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22">
+        <v>237</v>
+      </c>
+      <c r="I22" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="30">
+      <c r="C23" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23">
+        <v>148</v>
+      </c>
+      <c r="H23" t="s">
+        <v>664</v>
+      </c>
+      <c r="I23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24">
+        <v>177</v>
+      </c>
+      <c r="I24" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="30">
+      <c r="C25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25">
+        <v>140</v>
+      </c>
+      <c r="H25" t="s">
+        <v>658</v>
+      </c>
+      <c r="I25" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="30">
+      <c r="C26" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26">
+        <v>158</v>
+      </c>
+      <c r="H26" t="s">
+        <v>671</v>
+      </c>
+      <c r="I26" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="30">
+      <c r="C27" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27">
+        <v>194</v>
+      </c>
+      <c r="H27" t="s">
+        <v>702</v>
+      </c>
+      <c r="I27" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="30">
+      <c r="C28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28">
+        <v>211</v>
+      </c>
+      <c r="H28" t="s">
+        <v>718</v>
+      </c>
+      <c r="I28" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29">
+        <v>147</v>
+      </c>
+      <c r="I29" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="30">
+      <c r="C30" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30">
+        <v>229</v>
+      </c>
+      <c r="H30" t="s">
+        <v>735</v>
+      </c>
+      <c r="I30" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="30">
+      <c r="C31" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31">
+        <v>149</v>
+      </c>
+      <c r="H31" t="s">
+        <v>665</v>
+      </c>
+      <c r="I31" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="30">
+      <c r="C32" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32">
+        <v>190</v>
+      </c>
+      <c r="H32" t="s">
+        <v>698</v>
+      </c>
+      <c r="I32" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="30">
+      <c r="C33" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33">
+        <v>249</v>
+      </c>
+      <c r="H33" t="s">
+        <v>750</v>
+      </c>
+      <c r="I33" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34">
+        <v>155</v>
+      </c>
+      <c r="I34" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="30">
+      <c r="C35" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35">
+        <v>219</v>
+      </c>
+      <c r="H35" t="s">
+        <v>726</v>
+      </c>
+      <c r="I35" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="C36" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36">
+        <v>234</v>
+      </c>
+      <c r="I36" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37">
+        <v>176</v>
+      </c>
+      <c r="I37" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="30">
+      <c r="C38" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="G38">
+        <v>207</v>
+      </c>
+      <c r="H38" t="s">
+        <v>714</v>
+      </c>
+      <c r="I38" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="30">
+      <c r="C39" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39">
+        <v>162</v>
+      </c>
+      <c r="H39" t="s">
+        <v>674</v>
+      </c>
+      <c r="I39" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="30">
+      <c r="C40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40">
+        <v>201</v>
+      </c>
+      <c r="H40" t="s">
+        <v>709</v>
+      </c>
+      <c r="I40" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="30">
+      <c r="C41" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41">
+        <v>253</v>
+      </c>
+      <c r="H41" t="s">
+        <v>753</v>
+      </c>
+      <c r="I41" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" ht="30">
+      <c r="C42" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F42" s="18"/>
+      <c r="G42">
+        <v>212</v>
+      </c>
+      <c r="H42" t="s">
+        <v>719</v>
+      </c>
+      <c r="I42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" ht="30">
+      <c r="C43" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43">
+        <v>250</v>
+      </c>
+      <c r="H43" t="s">
+        <v>751</v>
+      </c>
+      <c r="I43" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9">
+      <c r="C44" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="F44" s="18"/>
+      <c r="G44">
+        <v>125</v>
+      </c>
+      <c r="I44" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" ht="30">
+      <c r="C45" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45" t="s">
+        <v>635</v>
+      </c>
+      <c r="I45" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" ht="30">
+      <c r="C46" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="F46" s="18"/>
+      <c r="G46">
+        <v>103</v>
+      </c>
+      <c r="H46" t="s">
+        <v>638</v>
+      </c>
+      <c r="I46" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" ht="30">
+      <c r="C47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="F47" s="18"/>
+      <c r="G47">
+        <v>205</v>
+      </c>
+      <c r="H47" t="s">
+        <v>712</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" ht="30">
+      <c r="C48" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="F48" s="18"/>
+      <c r="G48">
+        <v>230</v>
+      </c>
+      <c r="H48" t="s">
+        <v>736</v>
+      </c>
+      <c r="I48" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10">
+      <c r="C49" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="F49" s="18"/>
+      <c r="G49">
+        <v>233</v>
+      </c>
+      <c r="I49" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="C50" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F50" s="18"/>
+      <c r="G50">
+        <v>99</v>
+      </c>
+      <c r="I50" t="s">
+        <v>348</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" ht="30">
+      <c r="C51" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="F51" s="18"/>
+      <c r="G51">
+        <v>244</v>
+      </c>
+      <c r="H51" t="s">
+        <v>745</v>
+      </c>
+      <c r="I51" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" ht="30">
+      <c r="C52" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="F52" s="18"/>
+      <c r="G52">
+        <v>191</v>
+      </c>
+      <c r="H52" t="s">
+        <v>699</v>
+      </c>
+      <c r="I52" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" ht="30">
+      <c r="C53" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F53" s="18"/>
+      <c r="G53">
+        <v>141</v>
+      </c>
+      <c r="H53" t="s">
+        <v>659</v>
+      </c>
+      <c r="I53" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10">
+      <c r="C54" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F54" s="18"/>
+      <c r="G54">
+        <v>96</v>
+      </c>
+      <c r="I54" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" ht="30">
+      <c r="C55" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="F55" s="18"/>
+      <c r="G55">
+        <v>145</v>
+      </c>
+      <c r="H55" t="s">
+        <v>662</v>
+      </c>
+      <c r="I55" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10">
+      <c r="C56" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="F56" s="18"/>
+      <c r="G56">
+        <v>123</v>
+      </c>
+      <c r="I56" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" ht="30">
+      <c r="C57" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="F57" s="18"/>
+      <c r="G57">
+        <v>241</v>
+      </c>
+      <c r="H57" t="s">
+        <v>742</v>
+      </c>
+      <c r="I57" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10">
+      <c r="C58" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="F58" s="18"/>
+      <c r="G58">
+        <v>132</v>
+      </c>
+      <c r="I58" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10">
+      <c r="C59" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="F59" s="18"/>
+      <c r="G59">
+        <v>260</v>
+      </c>
+      <c r="I59" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" ht="30">
+      <c r="C60" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="F60" s="18"/>
+      <c r="G60">
+        <v>210</v>
+      </c>
+      <c r="H60" t="s">
+        <v>717</v>
+      </c>
+      <c r="I60" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" ht="30">
+      <c r="C61" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="F61" s="18"/>
+      <c r="G61">
+        <v>202</v>
+      </c>
+      <c r="H61" t="s">
+        <v>710</v>
+      </c>
+      <c r="I61" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" ht="30">
+      <c r="C62" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="F62" s="18"/>
+      <c r="G62">
+        <v>167</v>
+      </c>
+      <c r="H62" t="s">
+        <v>679</v>
+      </c>
+      <c r="I62" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" ht="30">
+      <c r="C63" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="F63" s="18"/>
+      <c r="G63">
+        <v>159</v>
+      </c>
+      <c r="H63" t="s">
+        <v>672</v>
+      </c>
+      <c r="I63" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" ht="30">
+      <c r="C64" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="F64" s="18"/>
+      <c r="G64">
+        <v>215</v>
+      </c>
+      <c r="H64" t="s">
+        <v>722</v>
+      </c>
+      <c r="I64" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9">
+      <c r="C65" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F65" s="18"/>
+      <c r="G65">
+        <v>114</v>
+      </c>
+      <c r="I65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" ht="30">
+      <c r="C66" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="F66" s="18"/>
+      <c r="G66">
+        <v>188</v>
+      </c>
+      <c r="H66" t="s">
+        <v>697</v>
+      </c>
+      <c r="I66" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" ht="30">
+      <c r="C67" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F67" s="18"/>
+      <c r="G67">
+        <v>183</v>
+      </c>
+      <c r="H67" t="s">
+        <v>692</v>
+      </c>
+      <c r="I67" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" ht="30">
+      <c r="C68" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="F68" s="18"/>
+      <c r="G68">
+        <v>182</v>
+      </c>
+      <c r="H68" t="s">
+        <v>691</v>
+      </c>
+      <c r="I68" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" ht="30">
+      <c r="C69" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="F69" s="18"/>
+      <c r="G69">
+        <v>144</v>
+      </c>
+      <c r="H69" t="s">
+        <v>661</v>
+      </c>
+      <c r="I69" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9">
+      <c r="C70" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="F70" s="18"/>
+      <c r="G70">
+        <v>115</v>
+      </c>
+      <c r="I70" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" ht="30">
+      <c r="C71" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="F71" s="18"/>
+      <c r="G71">
+        <v>231</v>
+      </c>
+      <c r="I71" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" ht="30">
+      <c r="C72" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="F72" s="18"/>
+      <c r="G72">
+        <v>104</v>
+      </c>
+      <c r="H72" t="s">
+        <v>639</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" ht="30">
+      <c r="C73" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="F73" s="18"/>
+      <c r="G73">
+        <v>187</v>
+      </c>
+      <c r="H73" t="s">
+        <v>696</v>
+      </c>
+      <c r="I73" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" ht="30">
+      <c r="C74" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="F74" s="18"/>
+      <c r="G74">
+        <v>146</v>
+      </c>
+      <c r="H74" t="s">
+        <v>663</v>
+      </c>
+      <c r="I74" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" ht="30">
+      <c r="C75" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F75" s="18"/>
+      <c r="G75">
+        <v>154</v>
+      </c>
+      <c r="H75" t="s">
+        <v>669</v>
+      </c>
+      <c r="I75" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9">
+      <c r="C76" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="F76" s="18"/>
+      <c r="G76">
+        <v>161</v>
+      </c>
+      <c r="I76" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9">
+      <c r="C77" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="F77" s="18"/>
+      <c r="G77">
+        <v>137</v>
+      </c>
+      <c r="I77" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" ht="30">
+      <c r="C78" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="F78" s="18"/>
+      <c r="G78">
+        <v>254</v>
+      </c>
+      <c r="H78" t="s">
+        <v>754</v>
+      </c>
+      <c r="I78" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" ht="30">
+      <c r="C79" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F79" s="18"/>
+      <c r="G79">
+        <v>224</v>
+      </c>
+      <c r="H79" t="s">
+        <v>731</v>
+      </c>
+      <c r="I79" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" ht="30">
+      <c r="C80" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="F80" s="18"/>
+      <c r="G80">
+        <v>218</v>
+      </c>
+      <c r="H80" t="s">
+        <v>725</v>
+      </c>
+      <c r="I80" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" ht="30">
+      <c r="C81" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F81" s="18"/>
+      <c r="G81">
+        <v>150</v>
+      </c>
+      <c r="H81" t="s">
+        <v>666</v>
+      </c>
+      <c r="I81" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" ht="30">
+      <c r="C82" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="F82" s="18"/>
+      <c r="G82">
+        <v>193</v>
+      </c>
+      <c r="H82" t="s">
+        <v>701</v>
+      </c>
+      <c r="I82" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" ht="30">
+      <c r="C83" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="F83" s="18"/>
+      <c r="G83">
+        <v>197</v>
+      </c>
+      <c r="H83" t="s">
+        <v>705</v>
+      </c>
+      <c r="I83" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" ht="30">
+      <c r="C84" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="F84" s="18"/>
+      <c r="G84">
+        <v>198</v>
+      </c>
+      <c r="H84" t="s">
+        <v>706</v>
+      </c>
+      <c r="I84" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" ht="30">
+      <c r="C85" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F85" s="18"/>
+      <c r="G85">
+        <v>256</v>
+      </c>
+      <c r="H85" t="s">
+        <v>756</v>
+      </c>
+      <c r="I85" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9">
+      <c r="C86" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="F86" s="18"/>
+      <c r="G86">
+        <v>143</v>
+      </c>
+      <c r="I86" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" ht="30">
+      <c r="C87" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="F87" s="18"/>
+      <c r="G87">
+        <v>216</v>
+      </c>
+      <c r="H87" t="s">
+        <v>723</v>
+      </c>
+      <c r="I87" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" ht="30">
+      <c r="C88" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="F88" s="18"/>
+      <c r="G88">
+        <v>199</v>
+      </c>
+      <c r="H88" t="s">
+        <v>707</v>
+      </c>
+      <c r="I88" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" ht="30">
+      <c r="C89" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="F89" s="18"/>
+      <c r="G89">
+        <v>221</v>
+      </c>
+      <c r="H89" t="s">
+        <v>728</v>
+      </c>
+      <c r="I89" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9">
+      <c r="C90" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="F90" s="18"/>
+      <c r="G90">
+        <v>259</v>
+      </c>
+      <c r="I90" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" ht="30">
+      <c r="C91" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F91" s="18"/>
+      <c r="G91">
+        <v>153</v>
+      </c>
+      <c r="H91" t="s">
+        <v>668</v>
+      </c>
+      <c r="I91" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9">
+      <c r="C92" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="F92" s="18"/>
+      <c r="G92">
+        <v>261</v>
+      </c>
+      <c r="I92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9" ht="30">
+      <c r="C93" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="F93" s="18"/>
+      <c r="G93">
+        <v>101</v>
+      </c>
+      <c r="H93" t="s">
+        <v>636</v>
+      </c>
+      <c r="I93" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9">
+      <c r="C94" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F94" s="18"/>
+      <c r="G94">
+        <v>236</v>
+      </c>
+      <c r="I94" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" ht="30">
+      <c r="C95" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F95" s="18"/>
+      <c r="G95">
+        <v>160</v>
+      </c>
+      <c r="H95" t="s">
+        <v>673</v>
+      </c>
+      <c r="I95" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9">
+      <c r="C96" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="F96" s="18"/>
+      <c r="G96">
+        <v>200</v>
+      </c>
+      <c r="H96" t="s">
+        <v>708</v>
+      </c>
+      <c r="I96" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="97" spans="3:10" ht="30">
+      <c r="C97" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="F97" s="18"/>
+      <c r="G97">
+        <v>242</v>
+      </c>
+      <c r="H97" t="s">
+        <v>743</v>
+      </c>
+      <c r="I97" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="98" spans="3:10" ht="30">
+      <c r="C98" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="F98" s="18"/>
+      <c r="G98">
+        <v>192</v>
+      </c>
+      <c r="H98" t="s">
+        <v>700</v>
+      </c>
+      <c r="I98" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="99" spans="3:10" ht="30">
+      <c r="C99" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="F99" s="18"/>
+      <c r="G99">
+        <v>119</v>
+      </c>
+      <c r="I99" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10">
+      <c r="C100" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="F100" s="18"/>
+      <c r="G100">
+        <v>126</v>
+      </c>
+      <c r="I100" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" spans="3:10">
+      <c r="C101" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F101" s="18"/>
+      <c r="G101">
+        <v>135</v>
+      </c>
+      <c r="I101" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="102" spans="3:10">
+      <c r="C102" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="F102" s="18"/>
+      <c r="G102">
+        <v>174</v>
+      </c>
+      <c r="H102" t="s">
+        <v>685</v>
+      </c>
+      <c r="I102" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="103" spans="3:10" ht="30">
+      <c r="C103" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="F103" s="18"/>
+      <c r="G103">
+        <v>129</v>
+      </c>
+      <c r="I103" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="104" spans="3:10">
+      <c r="C104" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="F104" s="18"/>
+      <c r="G104">
+        <v>255</v>
+      </c>
+      <c r="H104" t="s">
+        <v>755</v>
+      </c>
+      <c r="I104" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="105" spans="3:10" ht="30">
+      <c r="C105" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="F105" s="18"/>
+      <c r="G105">
+        <v>156</v>
+      </c>
+      <c r="H105" t="s">
+        <v>670</v>
+      </c>
+      <c r="I105" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="106" spans="3:10" ht="30">
+      <c r="C106" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="F106" s="18"/>
+      <c r="G106">
+        <v>107</v>
+      </c>
+      <c r="I106" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="107" spans="3:10">
+      <c r="C107" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="F107" s="18"/>
+      <c r="G107">
+        <v>189</v>
+      </c>
+      <c r="I107" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="108" spans="3:10">
+      <c r="C108" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="F108" s="18"/>
+      <c r="G108">
+        <v>98</v>
+      </c>
+      <c r="I108" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="109" spans="3:10">
+      <c r="C109" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="F109" s="18"/>
+      <c r="G109">
+        <v>228</v>
+      </c>
+      <c r="I109" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="110" spans="3:10" ht="30">
+      <c r="C110" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F110" s="18"/>
+      <c r="G110">
+        <v>164</v>
+      </c>
+      <c r="H110" t="s">
+        <v>676</v>
+      </c>
+      <c r="I110" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="111" spans="3:10">
+      <c r="C111" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F111" s="18"/>
+      <c r="G111">
+        <v>97</v>
+      </c>
+      <c r="I111" t="s">
+        <v>191</v>
+      </c>
+      <c r="J111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="3:10">
+      <c r="C112" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F112" s="18"/>
+      <c r="G112">
+        <v>252</v>
+      </c>
+      <c r="I112" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="3:9">
+      <c r="C113" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="F113" s="18"/>
+      <c r="G113">
+        <v>130</v>
+      </c>
+      <c r="I113" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="114" spans="3:9" ht="30">
+      <c r="C114" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="F114" s="18"/>
+      <c r="G114">
+        <v>173</v>
+      </c>
+      <c r="H114" t="s">
+        <v>684</v>
+      </c>
+      <c r="I114" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="115" spans="3:9" ht="30">
+      <c r="C115" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F115" s="18"/>
+      <c r="G115">
+        <v>102</v>
+      </c>
+      <c r="H115" t="s">
+        <v>637</v>
+      </c>
+      <c r="I115" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="116" spans="3:9" ht="30">
+      <c r="C116" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="F116" s="18"/>
+      <c r="G116">
+        <v>111</v>
+      </c>
+      <c r="H116" t="s">
+        <v>644</v>
+      </c>
+      <c r="I116" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9" ht="30">
+      <c r="C117" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="F117" s="18"/>
+      <c r="G117">
+        <v>209</v>
+      </c>
+      <c r="H117" t="s">
+        <v>716</v>
+      </c>
+      <c r="I117" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="118" spans="3:9" ht="30">
+      <c r="C118" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F118" s="18"/>
+      <c r="G118">
+        <v>94</v>
+      </c>
+      <c r="H118" t="s">
+        <v>633</v>
+      </c>
+      <c r="I118" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="119" spans="3:9">
+      <c r="C119" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="F119" s="18"/>
+      <c r="G119">
+        <v>157</v>
+      </c>
+      <c r="I119" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9">
+      <c r="C120" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="F120" s="18"/>
+      <c r="G120">
+        <v>113</v>
+      </c>
+      <c r="I120" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="121" spans="3:9" ht="30">
+      <c r="C121" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="F121" s="18"/>
+      <c r="G121">
+        <v>196</v>
+      </c>
+      <c r="H121" t="s">
+        <v>704</v>
+      </c>
+      <c r="I121" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9">
+      <c r="C122" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F122" s="18"/>
+      <c r="G122">
+        <v>121</v>
+      </c>
+      <c r="I122" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="3:9" ht="30">
+      <c r="C123" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="F123" s="18"/>
+      <c r="G123">
+        <v>217</v>
+      </c>
+      <c r="H123" t="s">
+        <v>724</v>
+      </c>
+      <c r="I123" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="124" spans="3:9">
+      <c r="C124" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="F124" s="18"/>
+      <c r="G124">
+        <v>203</v>
+      </c>
+      <c r="I124" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="125" spans="3:9" ht="30">
+      <c r="C125" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="F125" s="18"/>
+      <c r="G125">
+        <v>170</v>
+      </c>
+      <c r="H125" t="s">
+        <v>681</v>
+      </c>
+      <c r="I125" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="126" spans="3:9" ht="30">
+      <c r="C126" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="F126" s="18"/>
+      <c r="G126">
+        <v>243</v>
+      </c>
+      <c r="H126" t="s">
+        <v>744</v>
+      </c>
+      <c r="I126" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="127" spans="3:9">
+      <c r="C127" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="F127" s="18"/>
+      <c r="G127">
+        <v>124</v>
+      </c>
+      <c r="I127" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="128" spans="3:9" ht="30">
+      <c r="C128" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="F128" s="18"/>
+      <c r="G128">
+        <v>171</v>
+      </c>
+      <c r="H128" t="s">
+        <v>682</v>
+      </c>
+      <c r="I128" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="129" spans="3:9">
+      <c r="C129" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="F129" s="18"/>
+      <c r="G129">
+        <v>257</v>
+      </c>
+      <c r="I129" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="130" spans="3:9" ht="30">
+      <c r="C130" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="F130" s="18"/>
+      <c r="G130">
+        <v>180</v>
+      </c>
+      <c r="H130" t="s">
+        <v>689</v>
+      </c>
+      <c r="I130" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="131" spans="3:9" ht="30">
+      <c r="C131" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="F131" s="18"/>
+      <c r="G131">
+        <v>133</v>
+      </c>
+      <c r="H131" t="s">
+        <v>654</v>
+      </c>
+      <c r="I131" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="132" spans="3:9" ht="30">
+      <c r="C132" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="F132" s="18"/>
+      <c r="G132">
+        <v>213</v>
+      </c>
+      <c r="H132" t="s">
+        <v>720</v>
+      </c>
+      <c r="I132" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="133" spans="3:9" ht="30">
+      <c r="C133" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="F133" s="18"/>
+      <c r="G133">
+        <v>109</v>
+      </c>
+      <c r="H133" t="s">
+        <v>642</v>
+      </c>
+      <c r="I133" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="134" spans="3:9" ht="30">
+      <c r="C134" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="F134" s="18"/>
+      <c r="G134">
+        <v>169</v>
+      </c>
+      <c r="H134" t="s">
+        <v>680</v>
+      </c>
+      <c r="I134" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="135" spans="3:9" ht="30">
+      <c r="C135" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="F135" s="18"/>
+      <c r="G135">
+        <v>204</v>
+      </c>
+      <c r="H135" t="s">
+        <v>711</v>
+      </c>
+      <c r="I135" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="136" spans="3:9" ht="30">
+      <c r="C136" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="F136" s="18"/>
+      <c r="G136">
+        <v>206</v>
+      </c>
+      <c r="H136" t="s">
+        <v>713</v>
+      </c>
+      <c r="I136" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="137" spans="3:9" ht="30">
+      <c r="C137" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="F137" s="18"/>
+      <c r="G137">
+        <v>235</v>
+      </c>
+      <c r="H137" t="s">
+        <v>738</v>
+      </c>
+      <c r="I137" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="138" spans="3:9">
+      <c r="C138" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="F138" s="18"/>
+      <c r="G138">
+        <v>226</v>
+      </c>
+      <c r="I138" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="139" spans="3:9" ht="30">
+      <c r="C139" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="F139" s="18"/>
+      <c r="G139">
+        <v>181</v>
+      </c>
+      <c r="H139" t="s">
+        <v>690</v>
+      </c>
+      <c r="I139" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="140" spans="3:9" ht="30">
+      <c r="C140" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="F140" s="18"/>
+      <c r="G140">
+        <v>184</v>
+      </c>
+      <c r="H140" t="s">
+        <v>693</v>
+      </c>
+      <c r="I140" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="141" spans="3:9" ht="30">
+      <c r="C141" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F141" s="18"/>
+      <c r="G141">
+        <v>138</v>
+      </c>
+      <c r="H141" t="s">
+        <v>656</v>
+      </c>
+      <c r="I141" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="142" spans="3:9" ht="30">
+      <c r="C142" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="F142" s="18"/>
+      <c r="G142">
+        <v>240</v>
+      </c>
+      <c r="H142" t="s">
+        <v>741</v>
+      </c>
+      <c r="I142" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="143" spans="3:9" ht="30">
+      <c r="C143" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="F143" s="18"/>
+      <c r="G143">
+        <v>214</v>
+      </c>
+      <c r="H143" t="s">
+        <v>721</v>
+      </c>
+      <c r="I143" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="144" spans="3:9">
+      <c r="C144" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="F144" s="18"/>
+      <c r="G144">
+        <v>227</v>
+      </c>
+      <c r="I144" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="145" spans="3:9">
+      <c r="C145" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="F145" s="18"/>
+      <c r="G145">
+        <v>232</v>
+      </c>
+      <c r="I145" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="146" spans="3:9" ht="30">
+      <c r="C146" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="F146" s="18"/>
+      <c r="G146">
+        <v>93</v>
+      </c>
+      <c r="H146" t="s">
+        <v>632</v>
+      </c>
+      <c r="I146" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="147" spans="3:9" ht="30">
+      <c r="C147" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="F147" s="18"/>
+      <c r="G147">
+        <v>166</v>
+      </c>
+      <c r="H147" t="s">
+        <v>678</v>
+      </c>
+      <c r="I147" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="148" spans="3:9" ht="30">
+      <c r="C148" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F148" s="18"/>
+      <c r="G148">
+        <v>151</v>
+      </c>
+      <c r="H148" t="s">
+        <v>667</v>
+      </c>
+      <c r="I148" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="149" spans="3:9" ht="30">
+      <c r="C149" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="F149" s="18"/>
+      <c r="G149">
+        <v>105</v>
+      </c>
+      <c r="H149" t="s">
+        <v>640</v>
+      </c>
+      <c r="I149" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="150" spans="3:9" ht="30">
+      <c r="C150" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F150" s="18"/>
+      <c r="G150">
+        <v>110</v>
+      </c>
+      <c r="H150" t="s">
+        <v>643</v>
+      </c>
+      <c r="I150" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="151" spans="3:9" ht="30">
+      <c r="C151" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="F151" s="18"/>
+      <c r="G151">
+        <v>163</v>
+      </c>
+      <c r="H151" t="s">
+        <v>675</v>
+      </c>
+      <c r="I151" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="152" spans="3:9" ht="30">
+      <c r="C152" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="F152" s="18"/>
+      <c r="G152">
+        <v>142</v>
+      </c>
+      <c r="H152" t="s">
+        <v>660</v>
+      </c>
+      <c r="I152" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="153" spans="3:9" ht="30">
+      <c r="C153" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="F153" s="18"/>
+      <c r="G153">
+        <v>165</v>
+      </c>
+      <c r="H153" t="s">
+        <v>677</v>
+      </c>
+      <c r="I153" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="154" spans="3:9" ht="30">
+      <c r="C154" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="F154" s="18"/>
+      <c r="G154">
+        <v>139</v>
+      </c>
+      <c r="H154" t="s">
+        <v>657</v>
+      </c>
+      <c r="I154" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="155" spans="3:9" ht="30">
+      <c r="C155" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F155" s="18"/>
+      <c r="G155">
+        <v>179</v>
+      </c>
+      <c r="H155" t="s">
+        <v>688</v>
+      </c>
+      <c r="I155" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="156" spans="3:9" ht="30">
+      <c r="C156" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="F156" s="18"/>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156" t="s">
+        <v>630</v>
+      </c>
+      <c r="I156" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="157" spans="3:9" ht="30">
+      <c r="C157" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="F157" s="18"/>
+      <c r="G157">
+        <v>118</v>
+      </c>
+      <c r="H157" t="s">
+        <v>648</v>
+      </c>
+      <c r="I157" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="158" spans="3:9" ht="30">
+      <c r="C158" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="F158" s="18"/>
+      <c r="G158">
+        <v>222</v>
+      </c>
+      <c r="H158" t="s">
+        <v>729</v>
+      </c>
+      <c r="I158" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="159" spans="3:9" ht="30">
+      <c r="C159" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D159" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="F159" s="18"/>
+      <c r="G159">
+        <v>186</v>
+      </c>
+      <c r="H159" t="s">
+        <v>695</v>
+      </c>
+      <c r="I159" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="160" spans="3:9">
+      <c r="C160" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F160" s="18"/>
+      <c r="G160">
+        <v>95</v>
+      </c>
+      <c r="I160" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="161" spans="3:9" ht="30">
+      <c r="C161" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="F161" s="18"/>
+      <c r="G161">
+        <v>238</v>
+      </c>
+      <c r="H161" t="s">
+        <v>739</v>
+      </c>
+      <c r="I161" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="162" spans="3:9" ht="30">
+      <c r="C162" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="F162" s="18"/>
+      <c r="G162">
+        <v>127</v>
+      </c>
+      <c r="H162" t="s">
+        <v>651</v>
+      </c>
+      <c r="I162" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="163" spans="3:9" ht="30">
+      <c r="C163" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F163" s="18"/>
+      <c r="G163">
+        <v>248</v>
+      </c>
+      <c r="H163" t="s">
+        <v>749</v>
+      </c>
+      <c r="I163" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="164" spans="3:9" ht="30">
+      <c r="C164" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="F164" s="18"/>
+      <c r="G164">
+        <v>239</v>
+      </c>
+      <c r="H164" t="s">
+        <v>740</v>
+      </c>
+      <c r="I164" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="165" spans="3:9" ht="30">
+      <c r="C165" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="F165" s="18"/>
+      <c r="G165">
+        <v>225</v>
+      </c>
+      <c r="H165" t="s">
+        <v>732</v>
+      </c>
+      <c r="I165" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="166" spans="3:9" ht="30">
+      <c r="C166" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="F166" s="18"/>
+      <c r="G166">
+        <v>178</v>
+      </c>
+      <c r="H166" t="s">
+        <v>687</v>
+      </c>
+      <c r="I166" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="167" spans="3:9" ht="30">
+      <c r="C167" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="F167" s="18"/>
+      <c r="G167">
+        <v>128</v>
+      </c>
+      <c r="H167" t="s">
+        <v>652</v>
+      </c>
+      <c r="I167" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="168" spans="3:9" ht="30">
+      <c r="C168" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F168" s="18"/>
+      <c r="G168">
+        <v>116</v>
+      </c>
+      <c r="H168" t="s">
+        <v>646</v>
+      </c>
+      <c r="I168" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="169" spans="3:9" ht="30">
+      <c r="C169" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="F169" s="18"/>
+      <c r="G169">
+        <v>185</v>
+      </c>
+      <c r="H169" t="s">
+        <v>694</v>
+      </c>
+      <c r="I169" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="170" spans="3:9" ht="30">
+      <c r="C170" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="F170" s="18"/>
+      <c r="G170">
+        <v>247</v>
+      </c>
+      <c r="H170" t="s">
+        <v>748</v>
+      </c>
+      <c r="I170" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="171" spans="3:9" ht="30">
+      <c r="C171" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="F171" s="18"/>
+      <c r="G171">
+        <v>195</v>
+      </c>
+      <c r="H171" t="s">
+        <v>703</v>
+      </c>
+      <c r="I171" t="s">
+        <v>439</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:E171">
+    <sortCondition ref="E2"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>